--- a/frontend/web/uploads/branches_file.xlsx
+++ b/frontend/web/uploads/branches_file.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yii2tutorial\frontend\web\uploads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>branch_id</t>
   </si>
@@ -25,54 +38,51 @@
     <t>branch_address</t>
   </si>
   <si>
-    <t>branch_created_date</t>
-  </si>
-  <si>
     <t>branch_status</t>
   </si>
   <si>
-    <t>Buru Buru Branch</t>
-  </si>
-  <si>
-    <t>Mamlaka</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Umoja Branch</t>
-  </si>
-  <si>
-    <t>Kempinski</t>
+    <t>active</t>
   </si>
   <si>
     <t>Inactive</t>
   </si>
   <si>
-    <t>Isiolo Branch</t>
-  </si>
-  <si>
-    <t>Rongai</t>
+    <t>Wuhan</t>
+  </si>
+  <si>
+    <t>Tenders</t>
+  </si>
+  <si>
+    <t>Wahome</t>
+  </si>
+  <si>
+    <t>new branch 10</t>
+  </si>
+  <si>
+    <t>new branch 11</t>
+  </si>
+  <si>
+    <t>new branch 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,85 +90,152 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -299,103 +376,103 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="32.0"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1847777</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>4444.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>92929888</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9923399</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>5555.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>6666.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
+      <c r="E4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>